--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3722609.459904022</v>
+        <v>3720232.832956656</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7586268.040551851</v>
+        <v>7586268.04055185</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>306.8754044652943</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>143.1175458707135</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>39.15797524740153</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>81.01854875290712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>407.2400468701223</v>
+        <v>115.653228379492</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>10.24924571897636</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>199.8920653590308</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>3.819145028745191</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>41.00930247648633</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.16463037378294</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>90.69811547110022</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>31.26260713376574</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>2.813978415464941</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>91.89996056624759</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>41.02686156550228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
-        <v>25.52471385612597</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>66.25628701154712</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>125.2851635392055</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983395</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>41.02686156550217</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1200.956208280831</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="C2" t="n">
-        <v>831.9936913404192</v>
+        <v>922.5193592425328</v>
       </c>
       <c r="D2" t="n">
-        <v>522.0185353148694</v>
+        <v>922.5193592425328</v>
       </c>
       <c r="E2" t="n">
-        <v>136.2302827166252</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.695380320764</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>1977.695380320764</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="Y2" t="n">
-        <v>1587.556048344953</v>
+        <v>1291.481876182944</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744473</v>
+        <v>662.3527266874012</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1025.614745646621</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.0960630783031</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="C4" t="n">
-        <v>199.1598801503962</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387896</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W4" t="n">
-        <v>859.5709967387896</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="X4" t="n">
-        <v>631.5814458407723</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="Y4" t="n">
-        <v>549.7445279085429</v>
+        <v>535.7199774115529</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>904.8820361188232</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="C5" t="n">
-        <v>535.9195191784115</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="D5" t="n">
-        <v>535.9195191784115</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="E5" t="n">
-        <v>535.9195191784115</v>
+        <v>479.072874127204</v>
       </c>
       <c r="F5" t="n">
-        <v>528.9740184292081</v>
+        <v>472.1273733780005</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182945</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>1291.481876182945</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y5" t="n">
-        <v>1291.481876182945</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>127.7128549540967</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>312.4344762351467</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>607.1380332666183</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>970.4000522258383</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N6" t="n">
-        <v>1357.685180822783</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>514.9860105762135</v>
+        <v>359.6292930162434</v>
       </c>
       <c r="C7" t="n">
-        <v>346.0498276483066</v>
+        <v>359.6292930162434</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>209.5126536039077</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>61.59956002151458</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>61.59956002151458</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>61.59956002151458</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>61.59956002151458</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>1145.416605448001</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="W7" t="n">
-        <v>1145.416605448001</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="X7" t="n">
-        <v>917.4270545499834</v>
+        <v>762.0703369900133</v>
       </c>
       <c r="Y7" t="n">
-        <v>696.6344754064532</v>
+        <v>541.2777578464832</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>848.1875530107168</v>
+        <v>904.8820361188241</v>
       </c>
       <c r="C8" t="n">
-        <v>844.329830759459</v>
+        <v>535.9195191784124</v>
       </c>
       <c r="D8" t="n">
-        <v>844.329830759459</v>
+        <v>177.6538205716619</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.92672505065</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.787393074839</v>
+        <v>1291.481876182946</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N9" t="n">
-        <v>1590.463386300792</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O9" t="n">
-        <v>1922.533821476953</v>
+        <v>1946.556931114679</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>101.9181303799051</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>101.9181303799051</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>101.9181303799051</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>101.9181303799051</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>101.9181303799051</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1544.831862022881</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1544.831862022881</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1544.831862022881</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.147373816994</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.730203780033</v>
+        <v>732.3487252516923</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7406528820156</v>
+        <v>504.3591743536749</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9480737384855</v>
+        <v>283.5665952101448</v>
       </c>
     </row>
     <row r="11">
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5130,10 +5130,10 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061503</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2072.35525930079</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2415.384692536053</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5276,22 +5276,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.3929232910542</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>782.4567403631473</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1652.717886400351</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647277</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368208</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>481.447947124485</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>333.5348535420919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>186.6449060441816</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,7 +5747,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5975,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6075,16 +6075,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,13 +6215,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>296.7882229101285</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>129.5921236250085</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>129.5921236250085</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6452,37 +6452,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6552,13 +6552,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101285</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122182</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>149.8982754122182</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,19 +6777,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>634.5603720565526</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892232</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>414.4022433768874</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>266.4891497944943</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>119.599202296584</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>119.599202296584</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,13 +7017,13 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>184.7035232280589</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395904</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>302.45403664168</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>302.45403664168</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>160.7422054838781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2356.04164637206</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343192</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2570777219835</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>449.3439841395904</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>302.45403664168</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>194.80077839983</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395904</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>135.2579373565599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>135.2579373565599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="44">
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892232</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>414.4022433768874</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>266.4891497944943</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>119.599202296584</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,31 +8055,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>84.9418658837468</v>
+        <v>70.03064962107902</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>14.25823202432871</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>224.3355197601769</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039159</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>280.1079373569279</v>
+        <v>255.8421700460941</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>149.7636788678789</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>145.8014946027474</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>73.62417772602126</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>45.8481303472993</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>84.77391660562006</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
-        <v>114.7699989900979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>15.00954930701842</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>40.23897475306337</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844822967</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>40.23897475306337</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.9994244361429</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.719402128</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.719402128</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710695</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="F2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="F2" t="n">
-        <v>766789.269705506</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="K2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="M2" t="n">
         <v>766789.269705506</v>
@@ -26350,7 +26350,7 @@
         <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055058</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.620387699105777e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707399</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707401</v>
+        <v>6897.424496707377</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707383</v>
+        <v>6897.424496707392</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707365</v>
+        <v>6897.424496707378</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="J4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.42449670739</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707383</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.424496707383</v>
+      </c>
+      <c r="O4" t="n">
         <v>6897.424496707361</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707372</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707345</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-559609.6014763203</v>
+        <v>-559609.6014763196</v>
       </c>
       <c r="C6" t="n">
-        <v>555142.1820996002</v>
+        <v>555142.1820995996</v>
       </c>
       <c r="D6" t="n">
         <v>555142.1820995999</v>
       </c>
       <c r="E6" t="n">
-        <v>151283.8737603455</v>
+        <v>151249.13583491</v>
       </c>
       <c r="F6" t="n">
-        <v>658769.3153848916</v>
+        <v>658734.5774594555</v>
       </c>
       <c r="G6" t="n">
-        <v>658769.3153848913</v>
+        <v>658734.5774594559</v>
       </c>
       <c r="H6" t="n">
-        <v>658769.3153848913</v>
+        <v>658734.5774594558</v>
       </c>
       <c r="I6" t="n">
-        <v>658769.3153848915</v>
+        <v>658734.5774594556</v>
       </c>
       <c r="J6" t="n">
-        <v>491164.1375749088</v>
+        <v>491129.399649473</v>
       </c>
       <c r="K6" t="n">
-        <v>658769.3153848915</v>
+        <v>658734.5774594557</v>
       </c>
       <c r="L6" t="n">
-        <v>658769.3153848913</v>
+        <v>658734.5774594555</v>
       </c>
       <c r="M6" t="n">
-        <v>526162.0216559649</v>
+        <v>526127.2837305292</v>
       </c>
       <c r="N6" t="n">
-        <v>658769.3153848913</v>
+        <v>658734.5774594557</v>
       </c>
       <c r="O6" t="n">
-        <v>658769.3153848916</v>
+        <v>658734.5774594552</v>
       </c>
       <c r="P6" t="n">
-        <v>658769.3153848913</v>
+        <v>658734.5774594562</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>47.80763715538865</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>238.8128242015482</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>128.0888458512263</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>137.5661045991877</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>4.307655902831641</v>
+        <v>295.8944743934619</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>94.54734948492421</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>52.24557796479718</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>361.4537467422624</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>340.9210675957755</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>116.1419696710212</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>103.9643448906373</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31850,13 +31850,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>346.9084613860368</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>388.514013929771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,10 +33032,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33272,16 +33272,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>426.9501404413636</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33497,22 +33497,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>170.9292585737929</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,16 +33737,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>227.8611086463993</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33968,31 +33968,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>301.9817606876396</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M42" t="n">
-        <v>618.3341264639751</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984163</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>382.6222265215971</v>
+        <v>367.7110102589292</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>77.2384529152461</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>615.5326193530509</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>640.584832100039</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>529.7874664804601</v>
+        <v>505.5216991696265</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35498,13 +35498,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>212.9340539717066</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35887,7 +35887,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>245.9177694853266</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36920,16 +36920,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>295.6084283580303</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37145,22 +37145,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>44.09163190712619</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>90.01966967204031</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>161.9999866016181</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M42" t="n">
-        <v>476.2000925419567</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.118870915083</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
